--- a/data/nbateamsdata.xlsx
+++ b/data/nbateamsdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB6214-4EF8-4D50-94B2-83B14C970D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C57219-C3F7-45A0-99DC-0D0B5C2BC9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LeagueAverage" sheetId="33" r:id="rId1"/>
+    <sheet name="League Average" sheetId="33" r:id="rId1"/>
     <sheet name="Utah Jazz" sheetId="32" r:id="rId2"/>
     <sheet name="Portland Trail Blazers" sheetId="30" r:id="rId3"/>
     <sheet name="Oklahoma City Thunder" sheetId="29" r:id="rId4"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>

--- a/data/nbateamsdata.xlsx
+++ b/data/nbateamsdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5506be264ea6d1/文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="8_{E9260141-79CD-4517-B6D7-43EFE7B06DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E8EC439-0CF5-4F05-961C-C2FA5604A2F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61615033-98A0-41AA-934A-D9E371C14ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="929" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeagueAverage" sheetId="33" r:id="rId1"/>
@@ -55,35 +55,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="58">
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出賽數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="41">
   <si>
     <t>14-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIN勝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOSE敗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勝率 PCT</t>
-  </si>
-  <si>
-    <t>勝差 GB</t>
-  </si>
-  <si>
-    <t>名次 #</t>
   </si>
   <si>
     <t>21–20</t>
@@ -120,39 +95,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>場均得分PS/G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>場均失分PA/G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>—</t>
-  </si>
-  <si>
-    <t>14-15</t>
-  </si>
-  <si>
-    <t>15-16</t>
-  </si>
-  <si>
-    <t>16-17</t>
-  </si>
-  <si>
-    <t>17-18</t>
-  </si>
-  <si>
-    <t>18-19</t>
-  </si>
-  <si>
-    <t>19-20</t>
-  </si>
-  <si>
-    <t>20-21</t>
-  </si>
-  <si>
-    <t>21-22</t>
   </si>
   <si>
     <t>年度</t>
@@ -369,10 +312,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,83 +579,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9516D3-92E1-40B5-9638-71BBB01F2791}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3076</v>
@@ -784,7 +723,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3136</v>
@@ -852,7 +791,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3202</v>
@@ -920,7 +859,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3248</v>
@@ -988,7 +927,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3369</v>
@@ -1056,7 +995,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2885</v>
@@ -1124,7 +1063,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2967</v>
@@ -1192,7 +1131,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3331</v>
@@ -1272,103 +1211,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -1460,7 +1399,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -1552,7 +1491,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -1644,7 +1583,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -1728,7 +1667,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1736,7 +1675,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -1820,7 +1759,7 @@
         <v>0.64600000000000002</v>
       </c>
       <c r="AC6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1828,7 +1767,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -1912,7 +1851,7 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="AC7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1920,7 +1859,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -2012,7 +1951,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -2116,103 +2055,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -2304,7 +2243,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -2396,7 +2335,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -2488,7 +2427,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -2580,7 +2519,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -2672,7 +2611,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>75</v>
@@ -2764,7 +2703,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -2848,7 +2787,7 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="AC8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -2856,7 +2795,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -2960,103 +2899,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -3148,7 +3087,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -3240,7 +3179,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -3332,7 +3271,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -3424,7 +3363,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -3516,7 +3455,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -3600,7 +3539,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="AC7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -3608,7 +3547,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -3700,7 +3639,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -3804,103 +3743,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -3992,7 +3931,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -4084,7 +4023,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -4176,7 +4115,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -4268,7 +4207,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -4360,7 +4299,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -4452,7 +4391,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -4544,7 +4483,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -4648,103 +4587,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -4762,7 +4701,7 @@
         <v>103.3</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>82</v>
@@ -4842,7 +4781,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -4860,7 +4799,7 @@
         <v>107.5</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>82</v>
@@ -4940,7 +4879,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -4958,7 +4897,7 @@
         <v>113.3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>82</v>
@@ -5038,7 +4977,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -5056,7 +4995,7 @@
         <v>113.3</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>82</v>
@@ -5136,7 +5075,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -5154,7 +5093,7 @@
         <v>116.8</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>82</v>
@@ -5234,7 +5173,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -5252,7 +5191,7 @@
         <v>113.4</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>73</v>
@@ -5332,7 +5271,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -5416,7 +5355,7 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="AC8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -5424,7 +5363,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -5508,7 +5447,7 @@
         <v>0.78</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -5528,103 +5467,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -5716,7 +5655,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -5808,7 +5747,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -5900,7 +5839,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -5992,7 +5931,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -6084,7 +6023,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -6176,7 +6115,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -6268,7 +6207,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -6372,103 +6311,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -6560,7 +6499,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -6652,7 +6591,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -6744,7 +6683,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -6828,7 +6767,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -6836,7 +6775,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -6920,7 +6859,7 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="AC6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -6928,7 +6867,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>65</v>
@@ -7020,7 +6959,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -7112,7 +7051,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -7216,103 +7155,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -7404,7 +7343,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -7496,7 +7435,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -7588,7 +7527,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -7680,7 +7619,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -7764,7 +7703,7 @@
         <v>0.51200000000000001</v>
       </c>
       <c r="AC6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -7772,7 +7711,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -7864,7 +7803,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -7956,7 +7895,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -8060,103 +7999,103 @@
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -8248,7 +8187,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -8332,7 +8271,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="AC3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD3">
         <v>3</v>
@@ -8340,7 +8279,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -8432,7 +8371,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -8524,7 +8463,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -8616,7 +8555,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>65</v>
@@ -8708,7 +8647,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -8800,7 +8739,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -8904,103 +8843,103 @@
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -9092,7 +9031,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -9176,7 +9115,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="AC3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -9184,7 +9123,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -9276,7 +9215,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -9360,7 +9299,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -9368,7 +9307,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -9460,7 +9399,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -9544,7 +9483,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="AC7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -9552,7 +9491,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -9644,7 +9583,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -9728,7 +9667,7 @@
         <v>0.64600000000000002</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -9744,107 +9683,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996023BE-D0A2-4486-9ACC-15E30B75AD71}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -9936,7 +9875,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -10028,7 +9967,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -10120,7 +10059,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -10212,7 +10151,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -10304,7 +10243,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -10396,7 +10335,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -10480,7 +10419,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="AC8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -10488,7 +10427,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -10572,272 +10511,100 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="F17" s="2">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2">
-        <v>95.1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>94.9</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F18" s="2">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2">
-        <v>97.7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>95.9</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>82</v>
-      </c>
-      <c r="C19" s="2">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.622</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>100.7</v>
-      </c>
-      <c r="H19" s="2">
-        <v>96.8</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>82</v>
-      </c>
-      <c r="C20" s="2">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>104.1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>99.8</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" s="2">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="F21" s="2">
-        <v>4</v>
-      </c>
-      <c r="G21" s="2">
-        <v>111.7</v>
-      </c>
-      <c r="H21" s="2">
-        <v>106.5</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>82</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>111.3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>108.8</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2">
-        <v>116.4</v>
-      </c>
-      <c r="H23" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2">
-        <v>49</v>
-      </c>
-      <c r="D24" s="2">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2">
-        <v>113.6</v>
-      </c>
-      <c r="H24" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
+    <row r="16" spans="1:30" ht="15.05" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10854,103 +10621,103 @@
       <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -11042,7 +10809,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -11134,7 +10901,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -11218,7 +10985,7 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="AC4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -11226,7 +10993,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -11318,7 +11085,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -11410,7 +11177,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -11502,7 +11269,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -11594,7 +11361,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -11698,103 +11465,103 @@
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -11878,7 +11645,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="AC2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -11886,7 +11653,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -11970,7 +11737,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="AC3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD3">
         <v>2</v>
@@ -11978,7 +11745,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -12070,7 +11837,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -12162,7 +11929,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -12254,7 +12021,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>67</v>
@@ -12346,7 +12113,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -12430,7 +12197,7 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="AC8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -12438,7 +12205,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -12543,103 +12310,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -12731,7 +12498,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -12823,7 +12590,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -12915,7 +12682,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -13007,7 +12774,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -13099,7 +12866,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>66</v>
@@ -13191,7 +12958,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -13283,7 +13050,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -13387,103 +13154,103 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -13575,7 +13342,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -13667,7 +13434,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -13759,7 +13526,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -13851,7 +13618,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -13943,7 +13710,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -14035,7 +13802,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -14127,7 +13894,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -14231,103 +13998,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -14419,7 +14186,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -14511,7 +14278,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -14603,7 +14370,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -14695,7 +14462,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -14779,7 +14546,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="AC6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -14787,7 +14554,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -14871,7 +14638,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="AC7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -14879,7 +14646,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -14963,7 +14730,7 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="AC8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -14971,7 +14738,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -15055,7 +14822,7 @@
         <v>0.622</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -15075,103 +14842,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -15263,7 +15030,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -15355,7 +15122,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -15447,7 +15214,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -15539,7 +15306,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -15631,7 +15398,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -15723,7 +15490,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -15815,7 +15582,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -15899,7 +15666,7 @@
         <v>0.622</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -15919,103 +15686,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -16107,7 +15874,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -16199,7 +15966,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -16291,7 +16058,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -16383,7 +16150,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -16475,7 +16242,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -16567,7 +16334,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -16659,7 +16426,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -16763,103 +16530,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -16951,7 +16718,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -17043,7 +16810,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -17135,7 +16902,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -17227,7 +16994,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -17319,7 +17086,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>66</v>
@@ -17411,7 +17178,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -17503,7 +17270,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -17607,103 +17374,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -17795,7 +17562,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -17887,7 +17654,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -17979,7 +17746,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -18071,7 +17838,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -18163,7 +17930,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -18255,7 +18022,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -18339,7 +18106,7 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="AC8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -18347,7 +18114,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -18431,7 +18198,7 @@
         <v>0.622</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -18451,103 +18218,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -18631,7 +18398,7 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="AC2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -18639,7 +18406,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -18723,7 +18490,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="AC3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -18731,7 +18498,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -18823,7 +18590,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -18907,7 +18674,7 @@
         <v>0.72</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -18915,7 +18682,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -18999,7 +18766,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="AC6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -19007,7 +18774,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -19091,7 +18858,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="AC7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -19099,7 +18866,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -19191,7 +18958,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -19295,103 +19062,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -19483,7 +19250,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -19575,7 +19342,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -19667,7 +19434,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -19751,7 +19518,7 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -19759,7 +19526,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -19851,7 +19618,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>74</v>
@@ -19943,7 +19710,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -20035,7 +19802,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -20139,103 +19906,103 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -20319,7 +20086,7 @@
         <v>0.64600000000000002</v>
       </c>
       <c r="AC2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -20327,7 +20094,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -20411,7 +20178,7 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="AC3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -20419,7 +20186,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -20503,7 +20270,7 @@
         <v>0.622</v>
       </c>
       <c r="AC4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -20511,7 +20278,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -20595,7 +20362,7 @@
         <v>0.61</v>
       </c>
       <c r="AC5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -20603,7 +20370,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -20695,7 +20462,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>65</v>
@@ -20787,7 +20554,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -20879,7 +20646,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -20983,103 +20750,103 @@
       <selection activeCell="G2" sqref="G2:AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -21171,7 +20938,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -21263,7 +21030,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -21355,7 +21122,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -21447,7 +21214,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -21539,7 +21306,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>65</v>
@@ -21631,7 +21398,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -21723,7 +21490,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -21827,103 +21594,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -22015,7 +21782,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -22107,7 +21874,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -22199,7 +21966,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -22291,7 +22058,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -22383,7 +22150,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -22475,7 +22242,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -22567,7 +22334,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -22671,103 +22438,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -22859,7 +22626,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -22951,7 +22718,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -23043,7 +22810,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -23135,7 +22902,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -23227,7 +22994,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>64</v>
@@ -23319,7 +23086,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -23411,7 +23178,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -23515,103 +23282,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -23703,7 +23470,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -23795,7 +23562,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -23887,7 +23654,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -23979,7 +23746,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -24063,7 +23830,7 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="AC6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -24071,7 +23838,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -24155,7 +23922,7 @@
         <v>0.63</v>
       </c>
       <c r="AC7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -24163,7 +23930,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -24255,7 +24022,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -24359,103 +24126,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -24547,7 +24314,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -24639,7 +24406,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -24651,10 +24418,10 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>3210</v>
@@ -24731,7 +24498,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -24823,7 +24590,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -24915,7 +24682,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -25007,7 +24774,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -25099,7 +24866,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -25204,103 +24971,103 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -25392,7 +25159,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -25484,7 +25251,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -25576,7 +25343,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -25668,7 +25435,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -25760,7 +25527,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -25852,7 +25619,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -25944,7 +25711,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -26048,103 +25815,103 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -26236,7 +26003,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -26328,7 +26095,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -26420,7 +26187,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>82</v>
@@ -26512,7 +26279,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>82</v>
@@ -26604,7 +26371,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>73</v>
@@ -26696,7 +26463,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -26788,7 +26555,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -26872,7 +26639,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>1</v>
